--- a/Sources/DataverseComparativeReview/Comparative.xlsx
+++ b/Sources/DataverseComparativeReview/Comparative.xlsx
@@ -540,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0">
+    <comment ref="C63" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1245,7 +1245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="300">
   <si>
     <t xml:space="preserve">Information</t>
   </si>
@@ -1716,6 +1716,18 @@
     <t xml:space="preserve">No - Currently working toward ISO certification.</t>
   </si>
   <si>
+    <t xml:space="preserve">Infrastructure is turnkey, installable on premises, or both?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turnkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premises</t>
+  </si>
+  <si>
     <t xml:space="preserve">Content</t>
   </si>
   <si>
@@ -2168,14 +2180,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="#,##0"/>
-    <numFmt numFmtId="167" formatCode="0"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2318,6 +2329,22 @@
       <u val="single"/>
       <sz val="11"/>
       <color rgb="FF1155CC"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
@@ -2518,7 +2545,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2547,7 +2574,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2555,7 +2582,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2579,7 +2606,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2591,19 +2618,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2647,7 +2674,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2667,11 +2694,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2683,15 +2718,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2699,7 +2734,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2707,19 +2742,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2739,43 +2774,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2783,23 +2818,23 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2811,15 +2846,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2831,7 +2866,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2841,59 +2876,29 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF0B8043"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
     </dxf>
     <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FFC53929"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
     </dxf>
     <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FFF09300"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
     </dxf>
   </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -2966,7 +2971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2976,7 +2981,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.14"/>
@@ -3021,21 +3026,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="K58" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
-      <selection pane="bottomRight" activeCell="Q63" activeCellId="0" sqref="Q63"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
+      <selection pane="bottomRight" activeCell="Q61" activeCellId="0" sqref="Q61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="74.42"/>
@@ -3043,9 +3048,10 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="4" width="7.14"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="4" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="4" width="13.86"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="16" min="15" style="4" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="15" style="4" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="5" width="19.12"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="18" style="4" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="18" style="4" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="65" style="0" width="14.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5838,7 +5844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="24" t="s">
         <v>116</v>
       </c>
@@ -5942,7 +5948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="31" t="s">
         <v>116</v>
       </c>
@@ -6212,118 +6218,120 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="24"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="11"/>
-    </row>
-    <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="27"/>
-      <c r="B61" s="6" t="s">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="39"/>
-    </row>
-    <row r="62" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="24"/>
-      <c r="B62" s="17" t="s">
+      <c r="C60" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="40" t="n">
-        <v>116</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E62" s="41" t="n">
-        <v>15325</v>
-      </c>
-      <c r="F62" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="G62" s="43" t="n">
-        <v>21846</v>
-      </c>
-      <c r="H62" s="21" t="n">
-        <v>1500</v>
-      </c>
-      <c r="I62" s="44" t="n">
-        <v>243</v>
-      </c>
-      <c r="J62" s="45" t="n">
-        <v>4397</v>
-      </c>
-      <c r="K62" s="13" t="n">
-        <v>12709</v>
-      </c>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="D60" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="F60" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J60" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="24"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="11"/>
+    </row>
+    <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="27"/>
+      <c r="B62" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="28"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="41"/>
     </row>
     <row r="63" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="24"/>
       <c r="B63" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C63" s="40" t="n">
-        <v>426</v>
+        <v>154</v>
+      </c>
+      <c r="C63" s="42" t="n">
+        <v>116</v>
       </c>
       <c r="D63" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="46" t="n">
-        <v>50000</v>
-      </c>
-      <c r="F63" s="35" t="n">
-        <v>800000</v>
-      </c>
-      <c r="G63" s="43" t="n">
-        <v>197844</v>
-      </c>
-      <c r="H63" s="10" t="s">
+      <c r="E63" s="43" t="n">
+        <v>15325</v>
+      </c>
+      <c r="F63" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="I63" s="10" t="s">
-        <v>40</v>
+      <c r="G63" s="45" t="n">
+        <v>21846</v>
+      </c>
+      <c r="H63" s="21" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I63" s="46" t="n">
+        <v>243</v>
       </c>
       <c r="J63" s="47" t="n">
-        <v>191837</v>
-      </c>
-      <c r="K63" s="48" t="n">
-        <v>885531</v>
+        <v>4397</v>
+      </c>
+      <c r="K63" s="13" t="n">
+        <v>12709</v>
       </c>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
@@ -6337,22 +6345,22 @@
     <row r="64" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="24"/>
       <c r="B64" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C64" s="34" t="s">
-        <v>40</v>
+        <v>155</v>
+      </c>
+      <c r="C64" s="42" t="n">
+        <v>426</v>
       </c>
       <c r="D64" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="F64" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G64" s="10" t="n">
-        <v>13916</v>
+      <c r="E64" s="48" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F64" s="35" t="n">
+        <v>800000</v>
+      </c>
+      <c r="G64" s="45" t="n">
+        <v>197844</v>
       </c>
       <c r="H64" s="10" t="s">
         <v>40</v>
@@ -6360,94 +6368,93 @@
       <c r="I64" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J64" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="K64" s="49" t="n">
-        <v>56000</v>
+      <c r="J64" s="49" t="n">
+        <v>191837</v>
+      </c>
+      <c r="K64" s="50" t="n">
+        <v>885531</v>
       </c>
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
-      <c r="Q64" s="46" t="s">
+      <c r="Q64" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="109.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="24"/>
       <c r="B65" s="17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="E65" s="35" t="s">
-        <v>156</v>
+        <v>40</v>
+      </c>
+      <c r="E65" s="48" t="s">
+        <v>40</v>
       </c>
       <c r="F65" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="G65" s="10" t="s">
-        <v>157</v>
+      <c r="G65" s="10" t="n">
+        <v>13916</v>
       </c>
       <c r="H65" s="10" t="s">
         <v>40</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="J65" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="K65" s="13" t="s">
-        <v>160</v>
+        <v>40</v>
+      </c>
+      <c r="J65" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="K65" s="51" t="n">
+        <v>56000</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
-      <c r="Q65" s="11" t="s">
+      <c r="Q65" s="48" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="109.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="24"/>
       <c r="B66" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="F66" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G66" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="H66" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I66" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E66" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="F66" s="50" t="str">
-        <f aca="false">HYPERLINK("http://www.abs.gov.au/ausstats/abs@.nsf/0/4AE1B46AE2048A28CA25741800044242?opendocument","Australian and New Zealand Standard Research Classification (ANZSRC), 2008")</f>
-        <v>Australian and New Zealand Standard Research Classification (ANZSRC), 2008</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="I66" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="J66" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="K66" s="10" t="s">
-        <v>167</v>
+      <c r="K66" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
@@ -6455,29 +6462,68 @@
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
       <c r="Q66" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="24"/>
+      <c r="B67" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="E67" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F67" s="52" t="str">
+        <f aca="false">HYPERLINK("http://www.abs.gov.au/ausstats/abs@.nsf/0/4AE1B46AE2048A28CA25741800044242?opendocument","Australian and New Zealand Standard Research Classification (ANZSRC), 2008")</f>
+        <v>Australian and New Zealand Standard Research Classification (ANZSRC), 2008</v>
+      </c>
+      <c r="G67" s="10" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="51"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="10"/>
+      <c r="H67" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="J67" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
-      <c r="Q67" s="11"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q67" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="53"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
       <c r="Q68" s="11"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6507,29 +6553,26 @@
     <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q77" s="11"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q78" s="11"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q79" s="11"/>
     </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q80" s="11"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:N1 N2:N77 P1:P77 O2:O77 C2:C13 D2:D9 E2:J45 K2:K13 L2:L44 M2:M41 D11:D45 C15:C45 K15:K45 C48:M59 C62:D77 G62:M77 F63:F77 E64:E77 Q64">
-    <cfRule type="beginsWith" priority="2" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Yes" dxfId="0">
-      <formula>LEFT(C1,LEN("Yes"))="Yes"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="C1:N1 N2:N78 P1:P78 O2:O78 C2:C13 D2:D9 E2:J45 K2:K13 L2:L44 M2:M41 D11:D45 C15:C45 K15:K45 C48:M60 C63:D78 G63:M78 F64:F78 E65:E78 Q65">
+    <cfRule type="beginsWith" priority="2" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Yes" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:N1 N2:N77 P1:P77 O2:O77 C2:C13 D2:D9 E2:J45 K2:K13 L2:L44 M2:M41 D11:D45 C15:C45 K15:K45 C48:M59 C62:D77 G62:M77 F63:F77 E64:E77 Q64">
-    <cfRule type="beginsWith" priority="3" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="No" dxfId="1">
-      <formula>LEFT(C1,LEN("No"))="No"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="C1:N1 N2:N78 P1:P78 O2:O78 C2:C13 D2:D9 E2:J45 K2:K13 L2:L44 M2:M41 D11:D45 C15:C45 K15:K45 C48:M60 C63:D78 G63:M78 F64:F78 E65:E78 Q65">
+    <cfRule type="beginsWith" priority="3" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="No" dxfId="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:N1 N2:N77 P1:P77 O2:O77 C2:C13 D2:D9 E2:J45 K2:K13 L2:L44 M2:M41 D11:D45 C15:C45 K15:K45 C48:M59 C62:D77 G62:M77 F63:F77 E64:E77 Q64">
-    <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="unknown" dxfId="2">
-      <formula>NOT(ISERROR(SEARCH("unknown",C1)))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="C1:N1 N2:N78 P1:P78 O2:O78 C2:C13 D2:D9 E2:J45 K2:K13 L2:L44 M2:M41 D11:D45 C15:C45 K15:K45 C48:M60 C63:D78 G63:M78 F64:F78 E65:E78 Q65">
+    <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="unknown" dxfId="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N77">
+  <conditionalFormatting sqref="N1:N78">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -6541,7 +6584,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O41 O58:O59">
+  <conditionalFormatting sqref="O2:O41 O58:O60">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -6553,7 +6596,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P41 P58:P59">
+  <conditionalFormatting sqref="P2:P41 P58:P60">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -6566,7 +6609,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A2:A4 A8:A11 A13:A16 A18 A21:A22 A26 A28:A29 A31 A35 A37 A48:A59 A62:A67" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A2:A4 A8:A11 A13:A16 A18 A21:A22 A26 A28:A29 A31 A35 A37 A48:A60 A63:A68" type="list">
       <formula1>Categories!$A$2:$A$50</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6596,7 +6639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -6606,2082 +6649,2084 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="45.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="7" style="0" width="16.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="45.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="16.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D1" s="55" t="str">
+      <c r="D1" s="57" t="str">
         <f aca="false">"Median: "&amp;MEDIAN(D3:D46) &amp; " / 1st quartile: "&amp;QUARTILE(D3:D46,1)&amp;" / 3rd quartile: "&amp;QUARTILE(D3:D46,3)&amp; " / Mean: "&amp;AVERAGE(D3:D46)</f>
         <v>Median: 8 / 1st quartile: 4 / 3rd quartile: 12 / Mean: 8.70454545454546</v>
       </c>
-      <c r="G1" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="57"/>
+      <c r="G1" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="59"/>
     </row>
     <row r="2" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="B2" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="62" t="str">
+      <c r="C2" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="64" t="str">
         <f aca="false">HYPERLINK("https://rd-alliance.org/system/files/documents/Dissertation_UseCase_RepoPlat_1.docx","Dissertation")</f>
         <v>Dissertation</v>
       </c>
-      <c r="H2" s="62" t="str">
+      <c r="H2" s="64" t="str">
         <f aca="false">HYPERLINK("https://rd-alliance.org/system/files/documents/iRODS_UseCase_RepoPlat.docx","iRODS")</f>
         <v>iRODS</v>
       </c>
-      <c r="I2" s="62" t="str">
+      <c r="I2" s="64" t="str">
         <f aca="false">HYPERLINK("https://rd-alliance.org/system/files/documents/DKRZ-Climate_UseCase_RepoPlat.docx","DKRZ Climate")</f>
         <v>DKRZ Climate</v>
       </c>
-      <c r="J2" s="62" t="str">
+      <c r="J2" s="64" t="str">
         <f aca="false">HYPERLINK("https://rd-alliance.org/system/files/documents/NORDR_UseCase_RepoPlat_0.docx","NORDR")</f>
         <v>NORDR</v>
       </c>
-      <c r="K2" s="62" t="str">
+      <c r="K2" s="64" t="str">
         <f aca="false">HYPERLINK("https://rd-alliance.org/system/files/documents/Vecnet_UseCase_RepoPlat_20150915.docx","VecNet")</f>
         <v>VecNet</v>
       </c>
-      <c r="L2" s="62" t="str">
+      <c r="L2" s="64" t="str">
         <f aca="false">HYPERLINK("https://rd-alliance.org/system/files/documents/OpARA_UseCase_RepoPlat_20151015.docx","OpARA")</f>
         <v>OpARA</v>
       </c>
-      <c r="M2" s="62" t="str">
+      <c r="M2" s="64" t="str">
         <f aca="false">HYPERLINK("https://rd-alliance.org/system/files/documents/CurateND_UseCase_RepoPlat_20151203.docx","CurateND")</f>
         <v>CurateND</v>
       </c>
-      <c r="N2" s="62" t="str">
+      <c r="N2" s="64" t="str">
         <f aca="false">HYPERLINK("https://rd-alliance.org/system/files/documents/CUAC_UseCase_RepoPlat.docx","CUAC")</f>
         <v>CUAC</v>
       </c>
-      <c r="O2" s="62" t="str">
+      <c r="O2" s="64" t="str">
         <f aca="false">HYPERLINK("https://rd-alliance.org/system/files/documents/TAILwag_UseCase_RepoPlat.docx","TAILwag")</f>
         <v>TAILwag</v>
       </c>
-      <c r="P2" s="62" t="str">
+      <c r="P2" s="64" t="str">
         <f aca="false">HYPERLINK("https://www.rd-alliance.org/system/files/documents/SURFsaraTDR_UseCase_RepoPlat_2016_0.docx","SURFsara")</f>
         <v>SURFsara</v>
       </c>
-      <c r="Q2" s="62" t="str">
+      <c r="Q2" s="64" t="str">
         <f aca="false">HYPERLINK("https://rd-alliance.org/system/files/documents/InstitutionalLifeCycleRDM_UseCase_RepoPlat20160902.docx","Inst. Life-cycle")</f>
         <v>Inst. Life-cycle</v>
       </c>
-      <c r="R2" s="63"/>
+      <c r="R2" s="65"/>
     </row>
     <row r="3" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="66" t="n">
+      <c r="B3" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="68" t="n">
         <f aca="false">(5*COUNT(G3:Q3))-(SUM(G3:Q3))</f>
         <v>28</v>
       </c>
-      <c r="E3" s="67" t="n">
+      <c r="E3" s="69" t="n">
         <f aca="false">AVERAGE(G3:P3)</f>
         <v>1</v>
       </c>
-      <c r="F3" s="68" t="n">
+      <c r="F3" s="70" t="n">
         <f aca="false">COUNT(G3:Q3)</f>
         <v>7</v>
       </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
     </row>
     <row r="4" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="66" t="n">
+      <c r="A4" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="68" t="n">
         <f aca="false">(5*COUNT(G4:Q4))-(SUM(G4:Q4))</f>
         <v>26</v>
       </c>
-      <c r="E4" s="67" t="n">
+      <c r="E4" s="69" t="n">
         <f aca="false">AVERAGE(G4:P4)</f>
         <v>1.33333333333333</v>
       </c>
-      <c r="F4" s="68" t="n">
+      <c r="F4" s="70" t="n">
         <f aca="false">COUNT(G4:Q4)</f>
         <v>7</v>
       </c>
-      <c r="G4" s="69" t="n">
+      <c r="G4" s="71" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="68" t="n">
+      <c r="H4" s="70"/>
+      <c r="I4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="68"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="70"/>
     </row>
     <row r="5" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="66" t="n">
+      <c r="A5" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="68" t="n">
         <f aca="false">(5*COUNT(G5:Q5))-(SUM(G5:Q5))</f>
         <v>16</v>
       </c>
-      <c r="E5" s="67" t="n">
+      <c r="E5" s="69" t="n">
         <f aca="false">AVERAGE(G5:P5)</f>
         <v>1</v>
       </c>
-      <c r="F5" s="68" t="n">
+      <c r="F5" s="70" t="n">
         <f aca="false">COUNT(G5:Q5)</f>
         <v>4</v>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="68"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="70"/>
     </row>
     <row r="6" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" s="70" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="66" t="n">
+      <c r="A6" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="68" t="n">
         <f aca="false">(5*COUNT(G6:Q6))-(SUM(G6:Q6))</f>
         <v>16</v>
       </c>
-      <c r="E6" s="67" t="n">
+      <c r="E6" s="69" t="n">
         <f aca="false">AVERAGE(G6:P6)</f>
         <v>1</v>
       </c>
-      <c r="F6" s="68" t="n">
+      <c r="F6" s="70" t="n">
         <f aca="false">COUNT(G6:Q6)</f>
         <v>4</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="68"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="70"/>
     </row>
     <row r="7" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="C7" s="70" t="s">
+      <c r="A7" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="66" t="n">
+      <c r="B7" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="68" t="n">
         <f aca="false">(5*COUNT(G7:Q7))-(SUM(G7:Q7))</f>
         <v>16</v>
       </c>
-      <c r="E7" s="67" t="n">
+      <c r="E7" s="69" t="n">
         <f aca="false">AVERAGE(G7:P7)</f>
         <v>1</v>
       </c>
-      <c r="F7" s="68" t="n">
+      <c r="F7" s="70" t="n">
         <f aca="false">COUNT(G7:Q7)</f>
         <v>4</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="68"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="70"/>
     </row>
     <row r="8" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="64" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="71" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="71" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="66" t="n">
+      <c r="A8" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="68" t="n">
         <f aca="false">(5*COUNT(G8:Q8))-(SUM(G8:Q8))</f>
         <v>15</v>
       </c>
-      <c r="E8" s="67" t="n">
+      <c r="E8" s="69" t="n">
         <f aca="false">AVERAGE(G8:P8)</f>
         <v>1.25</v>
       </c>
-      <c r="F8" s="68" t="n">
+      <c r="F8" s="70" t="n">
         <f aca="false">COUNT(G8:Q8)</f>
         <v>4</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68" t="n">
+      <c r="G8" s="70"/>
+      <c r="H8" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
     </row>
     <row r="9" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="D9" s="66" t="n">
+      <c r="A9" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="68" t="n">
         <f aca="false">(5*COUNT(G9:Q9))-(SUM(G9:Q9))</f>
         <v>13</v>
       </c>
-      <c r="E9" s="67" t="n">
+      <c r="E9" s="69" t="n">
         <f aca="false">AVERAGE(G9:P9)</f>
         <v>2</v>
       </c>
-      <c r="F9" s="68" t="n">
+      <c r="F9" s="70" t="n">
         <f aca="false">COUNT(G9:Q9)</f>
         <v>4</v>
       </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68" t="n">
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="M9" s="68" t="n">
+      <c r="M9" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="N9" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="68"/>
+      <c r="N9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="70"/>
     </row>
     <row r="10" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="70" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="66" t="n">
+      <c r="A10" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="68" t="n">
         <f aca="false">(5*COUNT(G10:Q10))-(SUM(G10:Q10))</f>
         <v>13</v>
       </c>
-      <c r="E10" s="67" t="n">
+      <c r="E10" s="69" t="n">
         <f aca="false">AVERAGE(G10:P10)</f>
         <v>1.75</v>
       </c>
-      <c r="F10" s="68" t="n">
+      <c r="F10" s="70" t="n">
         <f aca="false">COUNT(G10:Q10)</f>
         <v>4</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68" t="n">
+      <c r="G10" s="70"/>
+      <c r="H10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="L10" s="68" t="n">
+      <c r="L10" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
     </row>
     <row r="11" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="66" t="n">
+      <c r="A11" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="68" t="n">
         <f aca="false">(5*COUNT(G11:Q11))-(SUM(G11:Q11))</f>
         <v>12</v>
       </c>
-      <c r="E11" s="67" t="n">
+      <c r="E11" s="69" t="n">
         <f aca="false">AVERAGE(G11:P11)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="68" t="n">
+      <c r="F11" s="70" t="n">
         <f aca="false">COUNT(G11:Q11)</f>
         <v>3</v>
       </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="68"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="70"/>
     </row>
     <row r="12" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="D12" s="66" t="n">
+      <c r="A12" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="68" t="n">
         <f aca="false">(5*COUNT(G12:Q12))-(SUM(G12:Q12))</f>
         <v>12</v>
       </c>
-      <c r="E12" s="67" t="n">
+      <c r="E12" s="69" t="n">
         <f aca="false">AVERAGE(G12:P12)</f>
         <v>1</v>
       </c>
-      <c r="F12" s="68" t="n">
+      <c r="F12" s="70" t="n">
         <f aca="false">COUNT(G12:Q12)</f>
         <v>3</v>
       </c>
-      <c r="G12" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="68"/>
+      <c r="G12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="70"/>
     </row>
     <row r="13" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="64" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="D13" s="66" t="n">
+      <c r="A13" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="68" t="n">
         <f aca="false">(5*COUNT(G13:Q13))-(SUM(G13:Q13))</f>
         <v>12</v>
       </c>
-      <c r="E13" s="67" t="n">
+      <c r="E13" s="69" t="n">
         <f aca="false">AVERAGE(G13:P13)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="68" t="n">
+      <c r="F13" s="70" t="n">
         <f aca="false">COUNT(G13:Q13)</f>
         <v>3</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="68"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="70"/>
     </row>
     <row r="14" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="70" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="D14" s="66" t="n">
+      <c r="B14" s="72" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="68" t="n">
         <f aca="false">(5*COUNT(G14:Q14))-(SUM(G14:Q14))</f>
         <v>12</v>
       </c>
-      <c r="E14" s="67" t="n">
+      <c r="E14" s="69" t="n">
         <f aca="false">AVERAGE(G14:P14)</f>
         <v>1</v>
       </c>
-      <c r="F14" s="68" t="n">
+      <c r="F14" s="70" t="n">
         <f aca="false">COUNT(G14:Q14)</f>
         <v>3</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="68"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="70"/>
     </row>
     <row r="15" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="64" t="s">
-        <v>189</v>
-      </c>
-      <c r="B15" s="71" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="71" t="s">
-        <v>208</v>
-      </c>
-      <c r="D15" s="66" t="n">
+      <c r="A15" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="68" t="n">
         <f aca="false">(5*COUNT(G15:Q15))-(SUM(G15:Q15))</f>
         <v>12</v>
       </c>
-      <c r="E15" s="67" t="n">
+      <c r="E15" s="69" t="n">
         <f aca="false">AVERAGE(G15:P15)</f>
         <v>1</v>
       </c>
-      <c r="F15" s="68" t="n">
+      <c r="F15" s="70" t="n">
         <f aca="false">COUNT(G15:Q15)</f>
         <v>3</v>
       </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="68"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="70"/>
     </row>
     <row r="16" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>210</v>
-      </c>
-      <c r="D16" s="66" t="n">
+      <c r="A16" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="68" t="n">
         <f aca="false">(5*COUNT(G16:Q16))-(SUM(G16:Q16))</f>
         <v>12</v>
       </c>
-      <c r="E16" s="67" t="n">
+      <c r="E16" s="69" t="n">
         <f aca="false">AVERAGE(G16:P16)</f>
         <v>1</v>
       </c>
-      <c r="F16" s="68" t="n">
+      <c r="F16" s="70" t="n">
         <f aca="false">COUNT(G16:Q16)</f>
         <v>3</v>
       </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="68"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="70"/>
     </row>
     <row r="17" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="66" t="n">
+      <c r="A17" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="68" t="n">
         <f aca="false">(5*COUNT(G17:Q17))-(SUM(G17:Q17))</f>
         <v>11</v>
       </c>
-      <c r="E17" s="67" t="n">
+      <c r="E17" s="69" t="n">
         <f aca="false">AVERAGE(G17:P17)</f>
         <v>1.33333333333333</v>
       </c>
-      <c r="F17" s="68" t="n">
+      <c r="F17" s="70" t="n">
         <f aca="false">COUNT(G17:Q17)</f>
         <v>3</v>
       </c>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="68" t="n">
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="M17" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
+      <c r="M17" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
     </row>
     <row r="18" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="B18" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" s="70" t="s">
-        <v>214</v>
-      </c>
-      <c r="D18" s="66" t="n">
+      <c r="A18" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="68" t="n">
         <f aca="false">(5*COUNT(G18:Q18))-(SUM(G18:Q18))</f>
         <v>11</v>
       </c>
-      <c r="E18" s="67" t="n">
+      <c r="E18" s="69" t="n">
         <f aca="false">AVERAGE(G18:P18)</f>
         <v>1.5</v>
       </c>
-      <c r="F18" s="68" t="n">
+      <c r="F18" s="70" t="n">
         <f aca="false">COUNT(G18:Q18)</f>
         <v>3</v>
       </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68" t="n">
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="N18" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="68"/>
+      <c r="N18" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="70"/>
     </row>
     <row r="19" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="B19" s="65" t="s">
-        <v>216</v>
-      </c>
-      <c r="C19" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" s="66" t="n">
+      <c r="A19" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="68" t="n">
         <f aca="false">(5*COUNT(G19:Q19))-(SUM(G19:Q19))</f>
         <v>9</v>
       </c>
-      <c r="E19" s="67" t="n">
+      <c r="E19" s="69" t="n">
         <f aca="false">AVERAGE(G19:P19)</f>
         <v>2</v>
       </c>
-      <c r="F19" s="68" t="n">
+      <c r="F19" s="70" t="n">
         <f aca="false">COUNT(G19:Q19)</f>
         <v>3</v>
       </c>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68" t="n">
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="J19" s="68" t="n">
+      <c r="J19" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68" t="n">
+      <c r="K19" s="70"/>
+      <c r="L19" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
     </row>
     <row r="20" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C20" s="72" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20" s="66" t="n">
+      <c r="A20" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="68" t="n">
         <f aca="false">(5*COUNT(G20:Q20))-(SUM(G20:Q20))</f>
         <v>8</v>
       </c>
-      <c r="E20" s="67" t="n">
+      <c r="E20" s="69" t="n">
         <f aca="false">AVERAGE(G20:P20)</f>
         <v>1</v>
       </c>
-      <c r="F20" s="68" t="n">
+      <c r="F20" s="70" t="n">
         <f aca="false">COUNT(G20:Q20)</f>
         <v>2</v>
       </c>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
     </row>
     <row r="21" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="B21" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="C21" s="70" t="s">
-        <v>221</v>
-      </c>
-      <c r="D21" s="66" t="n">
+      <c r="A21" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" s="68" t="n">
         <f aca="false">(5*COUNT(G21:Q21))-(SUM(G21:Q21))</f>
         <v>8</v>
       </c>
-      <c r="E21" s="67" t="n">
+      <c r="E21" s="69" t="n">
         <f aca="false">AVERAGE(G21:P21)</f>
         <v>1</v>
       </c>
-      <c r="F21" s="68" t="n">
+      <c r="F21" s="70" t="n">
         <f aca="false">COUNT(G21:Q21)</f>
         <v>2</v>
       </c>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="68"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="70"/>
     </row>
     <row r="22" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="B22" s="73" t="s">
-        <v>223</v>
-      </c>
-      <c r="C22" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="D22" s="66" t="n">
+      <c r="A22" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="68" t="n">
         <f aca="false">(5*COUNT(G22:Q22))-(SUM(G22:Q22))</f>
         <v>8</v>
       </c>
-      <c r="E22" s="67" t="n">
+      <c r="E22" s="69" t="n">
         <f aca="false">AVERAGE(G22:P22)</f>
         <v>1</v>
       </c>
-      <c r="F22" s="68" t="n">
+      <c r="F22" s="70" t="n">
         <f aca="false">COUNT(G22:Q22)</f>
         <v>2</v>
       </c>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" s="68"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="70"/>
     </row>
     <row r="23" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="B23" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="C23" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="D23" s="66" t="n">
+      <c r="A23" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="68" t="n">
         <f aca="false">(5*COUNT(G23:Q23))-(SUM(G23:Q23))</f>
         <v>8</v>
       </c>
-      <c r="E23" s="67" t="n">
+      <c r="E23" s="69" t="n">
         <f aca="false">AVERAGE(G23:P23)</f>
         <v>1</v>
       </c>
-      <c r="F23" s="68" t="n">
+      <c r="F23" s="70" t="n">
         <f aca="false">COUNT(G23:Q23)</f>
         <v>2</v>
       </c>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
     </row>
     <row r="24" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="64" t="s">
-        <v>189</v>
-      </c>
-      <c r="B24" s="65" t="s">
-        <v>227</v>
-      </c>
-      <c r="C24" s="73" t="s">
-        <v>228</v>
-      </c>
-      <c r="D24" s="66" t="n">
+      <c r="A24" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" s="68" t="n">
         <f aca="false">(5*COUNT(G24:Q24))-(SUM(G24:Q24))</f>
         <v>8</v>
       </c>
-      <c r="E24" s="67" t="n">
+      <c r="E24" s="69" t="n">
         <f aca="false">AVERAGE(G24:P24)</f>
         <v>1</v>
       </c>
-      <c r="F24" s="68" t="n">
+      <c r="F24" s="70" t="n">
         <f aca="false">COUNT(G24:Q24)</f>
         <v>2</v>
       </c>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
     </row>
     <row r="25" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="64" t="s">
-        <v>229</v>
-      </c>
-      <c r="B25" s="65" t="s">
-        <v>230</v>
-      </c>
-      <c r="C25" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="D25" s="66" t="n">
+      <c r="A25" s="66" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" s="68" t="n">
         <f aca="false">(5*COUNT(G25:Q25))-(SUM(G25:Q25))</f>
         <v>8</v>
       </c>
-      <c r="E25" s="67" t="n">
+      <c r="E25" s="69" t="n">
         <f aca="false">AVERAGE(G25:P25)</f>
         <v>1</v>
       </c>
-      <c r="F25" s="68" t="n">
+      <c r="F25" s="70" t="n">
         <f aca="false">COUNT(G25:Q25)</f>
         <v>2</v>
       </c>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
     </row>
     <row r="26" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="B26" s="70" t="s">
-        <v>232</v>
-      </c>
-      <c r="C26" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="D26" s="66" t="n">
+      <c r="A26" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="68" t="n">
         <f aca="false">(5*COUNT(G26:Q26))-(SUM(G26:Q26))</f>
         <v>8</v>
       </c>
-      <c r="E26" s="67" t="n">
+      <c r="E26" s="69" t="n">
         <f aca="false">AVERAGE(G26:P26)</f>
         <v>1</v>
       </c>
-      <c r="F26" s="68" t="n">
+      <c r="F26" s="70" t="n">
         <f aca="false">COUNT(G26:Q26)</f>
         <v>2</v>
       </c>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
     </row>
     <row r="27" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="B27" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="C27" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="D27" s="66" t="n">
+      <c r="A27" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="68" t="n">
         <f aca="false">(5*COUNT(G27:Q27))-(SUM(G27:Q27))</f>
         <v>8</v>
       </c>
-      <c r="E27" s="67" t="n">
+      <c r="E27" s="69" t="n">
         <f aca="false">AVERAGE(G27:P27)</f>
         <v>1</v>
       </c>
-      <c r="F27" s="68" t="n">
+      <c r="F27" s="70" t="n">
         <f aca="false">COUNT(G27:Q27)</f>
         <v>2</v>
       </c>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" s="68"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" s="70"/>
     </row>
     <row r="28" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="64" t="s">
-        <v>236</v>
-      </c>
-      <c r="B28" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66" t="n">
+      <c r="A28" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68" t="n">
         <f aca="false">(5*COUNT(G28:Q28))-(SUM(G28:Q28))</f>
         <v>8</v>
       </c>
-      <c r="E28" s="67" t="n">
+      <c r="E28" s="69" t="n">
         <f aca="false">AVERAGE(G28:P28)</f>
         <v>1</v>
       </c>
-      <c r="F28" s="68" t="n">
+      <c r="F28" s="70" t="n">
         <f aca="false">COUNT(G28:Q28)</f>
         <v>2</v>
       </c>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" s="68"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" s="70"/>
     </row>
     <row r="29" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="64" t="s">
-        <v>229</v>
-      </c>
-      <c r="B29" s="70" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="D29" s="66" t="n">
+      <c r="A29" s="66" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" s="68" t="n">
         <f aca="false">(5*COUNT(G29:Q29))-(SUM(G29:Q29))</f>
         <v>7</v>
       </c>
-      <c r="E29" s="67" t="n">
+      <c r="E29" s="69" t="n">
         <f aca="false">AVERAGE(G29:P29)</f>
         <v>1.5</v>
       </c>
-      <c r="F29" s="68" t="n">
+      <c r="F29" s="70" t="n">
         <f aca="false">COUNT(G29:Q29)</f>
         <v>2</v>
       </c>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68" t="n">
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="68"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
     </row>
     <row r="30" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="B30" s="70" t="s">
-        <v>240</v>
-      </c>
-      <c r="C30" s="70" t="s">
-        <v>241</v>
-      </c>
-      <c r="D30" s="66" t="n">
+      <c r="A30" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" s="72" t="s">
+        <v>245</v>
+      </c>
+      <c r="D30" s="68" t="n">
         <f aca="false">(5*COUNT(G30:Q30))-(SUM(G30:Q30))</f>
         <v>7</v>
       </c>
-      <c r="E30" s="67" t="n">
+      <c r="E30" s="69" t="n">
         <f aca="false">AVERAGE(G30:P30)</f>
         <v>1.5</v>
       </c>
-      <c r="F30" s="68" t="n">
+      <c r="F30" s="70" t="n">
         <f aca="false">COUNT(G30:Q30)</f>
         <v>2</v>
       </c>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68" t="n">
+      <c r="G30" s="70"/>
+      <c r="H30" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="68"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
     </row>
     <row r="31" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="B31" s="70" t="s">
-        <v>242</v>
-      </c>
-      <c r="C31" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="D31" s="66" t="n">
+      <c r="A31" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31" s="72" t="s">
+        <v>246</v>
+      </c>
+      <c r="C31" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="D31" s="68" t="n">
         <f aca="false">(5*COUNT(G31:Q31))-(SUM(G31:Q31))</f>
         <v>7</v>
       </c>
-      <c r="E31" s="67" t="n">
+      <c r="E31" s="69" t="n">
         <f aca="false">AVERAGE(G31:P31)</f>
         <v>2</v>
       </c>
-      <c r="F31" s="68" t="n">
+      <c r="F31" s="70" t="n">
         <f aca="false">COUNT(G31:Q31)</f>
         <v>2</v>
       </c>
-      <c r="G31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68" t="n">
+      <c r="G31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" s="68"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" s="70"/>
     </row>
     <row r="32" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="B32" s="70" t="s">
-        <v>244</v>
-      </c>
-      <c r="C32" s="70" t="s">
-        <v>245</v>
-      </c>
-      <c r="D32" s="66" t="n">
+      <c r="A32" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="B32" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" s="72" t="s">
+        <v>249</v>
+      </c>
+      <c r="D32" s="68" t="n">
         <f aca="false">(5*COUNT(G32:Q32))-(SUM(G32:Q32))</f>
         <v>4</v>
       </c>
-      <c r="E32" s="67" t="n">
+      <c r="E32" s="69" t="n">
         <f aca="false">AVERAGE(G32:P32)</f>
         <v>1</v>
       </c>
-      <c r="F32" s="68" t="n">
+      <c r="F32" s="70" t="n">
         <f aca="false">COUNT(G32:Q32)</f>
         <v>1</v>
       </c>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="68"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="70"/>
+      <c r="Q32" s="70"/>
+      <c r="R32" s="70"/>
     </row>
     <row r="33" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="64" t="s">
-        <v>229</v>
-      </c>
-      <c r="B33" s="65" t="s">
-        <v>246</v>
-      </c>
-      <c r="C33" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="D33" s="66" t="n">
+      <c r="A33" s="66" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="D33" s="68" t="n">
         <f aca="false">(5*COUNT(G33:Q33))-(SUM(G33:Q33))</f>
         <v>4</v>
       </c>
-      <c r="E33" s="67" t="n">
+      <c r="E33" s="69" t="n">
         <f aca="false">AVERAGE(G33:P33)</f>
         <v>1</v>
       </c>
-      <c r="F33" s="68" t="n">
+      <c r="F33" s="70" t="n">
         <f aca="false">COUNT(G33:Q33)</f>
         <v>1</v>
       </c>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="70"/>
     </row>
     <row r="34" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="64" t="s">
-        <v>229</v>
-      </c>
-      <c r="B34" s="70" t="s">
-        <v>248</v>
-      </c>
-      <c r="C34" s="70" t="s">
-        <v>249</v>
-      </c>
-      <c r="D34" s="66" t="n">
+      <c r="A34" s="66" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="D34" s="68" t="n">
         <f aca="false">(5*COUNT(G34:Q34))-(SUM(G34:Q34))</f>
         <v>4</v>
       </c>
-      <c r="E34" s="67" t="n">
+      <c r="E34" s="69" t="n">
         <f aca="false">AVERAGE(G34:P34)</f>
         <v>1</v>
       </c>
-      <c r="F34" s="68" t="n">
+      <c r="F34" s="70" t="n">
         <f aca="false">COUNT(G34:Q34)</f>
         <v>1</v>
       </c>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="70"/>
+      <c r="R34" s="70"/>
     </row>
     <row r="35" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="B35" s="70" t="s">
-        <v>250</v>
-      </c>
-      <c r="C35" s="70" t="s">
-        <v>251</v>
-      </c>
-      <c r="D35" s="66" t="n">
+      <c r="A35" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="D35" s="68" t="n">
         <f aca="false">(5*COUNT(G35:Q35))-(SUM(G35:Q35))</f>
         <v>4</v>
       </c>
-      <c r="E35" s="67" t="n">
+      <c r="E35" s="69" t="n">
         <f aca="false">AVERAGE(G35:P35)</f>
         <v>1</v>
       </c>
-      <c r="F35" s="68" t="n">
+      <c r="F35" s="70" t="n">
         <f aca="false">COUNT(G35:Q35)</f>
         <v>1</v>
       </c>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="68"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="70"/>
+      <c r="Q35" s="70"/>
+      <c r="R35" s="70"/>
     </row>
     <row r="36" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="B36" s="70" t="s">
-        <v>252</v>
-      </c>
-      <c r="C36" s="70" t="s">
-        <v>253</v>
-      </c>
-      <c r="D36" s="66" t="n">
+      <c r="A36" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="C36" s="72" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" s="68" t="n">
         <f aca="false">(5*COUNT(G36:Q36))-(SUM(G36:Q36))</f>
         <v>4</v>
       </c>
-      <c r="E36" s="67" t="n">
+      <c r="E36" s="69" t="n">
         <f aca="false">AVERAGE(G36:P36)</f>
         <v>1</v>
       </c>
-      <c r="F36" s="68" t="n">
+      <c r="F36" s="70" t="n">
         <f aca="false">COUNT(G36:Q36)</f>
         <v>1</v>
       </c>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="68"/>
-      <c r="Q36" s="68"/>
-      <c r="R36" s="68"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="70"/>
+      <c r="Q36" s="70"/>
+      <c r="R36" s="70"/>
     </row>
     <row r="37" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="B37" s="70" t="s">
-        <v>254</v>
-      </c>
-      <c r="C37" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="D37" s="66" t="n">
+      <c r="A37" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" s="72" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="68" t="n">
         <f aca="false">(5*COUNT(G37:Q37))-(SUM(G37:Q37))</f>
         <v>3</v>
       </c>
-      <c r="E37" s="67" t="n">
+      <c r="E37" s="69" t="n">
         <f aca="false">AVERAGE(G37:P37)</f>
         <v>2</v>
       </c>
-      <c r="F37" s="68" t="n">
+      <c r="F37" s="70" t="n">
         <f aca="false">COUNT(G37:Q37)</f>
         <v>1</v>
       </c>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="69" t="n">
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="71" t="n">
         <v>2</v>
       </c>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
-      <c r="N37" s="68"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="68"/>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="68"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="70"/>
+      <c r="R37" s="70"/>
     </row>
     <row r="38" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="B38" s="70" t="s">
-        <v>256</v>
-      </c>
-      <c r="C38" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="D38" s="66" t="n">
+      <c r="A38" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="C38" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="D38" s="68" t="n">
         <f aca="false">(5*COUNT(G38:Q38))-(SUM(G38:Q38))</f>
         <v>3</v>
       </c>
-      <c r="E38" s="67" t="n">
+      <c r="E38" s="69" t="n">
         <f aca="false">AVERAGE(G38:P38)</f>
         <v>2</v>
       </c>
-      <c r="F38" s="68" t="n">
+      <c r="F38" s="70" t="n">
         <f aca="false">COUNT(G38:Q38)</f>
         <v>1</v>
       </c>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="69" t="n">
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="71" t="n">
         <v>2</v>
       </c>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="68"/>
-      <c r="R38" s="68"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
+      <c r="R38" s="70"/>
     </row>
     <row r="39" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="B39" s="73" t="s">
-        <v>258</v>
-      </c>
-      <c r="C39" s="73" t="s">
-        <v>259</v>
-      </c>
-      <c r="D39" s="66" t="n">
+      <c r="A39" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" s="75" t="s">
+        <v>262</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>263</v>
+      </c>
+      <c r="D39" s="68" t="n">
         <f aca="false">(5*COUNT(G39:Q39))-(SUM(G39:Q39))</f>
         <v>3</v>
       </c>
-      <c r="E39" s="67" t="n">
+      <c r="E39" s="69" t="n">
         <f aca="false">AVERAGE(G39:P39)</f>
         <v>2</v>
       </c>
-      <c r="F39" s="68" t="n">
+      <c r="F39" s="70" t="n">
         <f aca="false">COUNT(G39:Q39)</f>
         <v>1</v>
       </c>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68" t="n">
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="68"/>
-      <c r="Q39" s="68"/>
-      <c r="R39" s="68"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="70"/>
+      <c r="R39" s="70"/>
     </row>
     <row r="40" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="B40" s="71" t="s">
-        <v>260</v>
-      </c>
-      <c r="C40" s="71" t="s">
-        <v>261</v>
-      </c>
-      <c r="D40" s="66" t="n">
+      <c r="A40" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B40" s="73" t="s">
+        <v>264</v>
+      </c>
+      <c r="C40" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="D40" s="68" t="n">
         <f aca="false">(5*COUNT(G40:Q40))-(SUM(G40:Q40))</f>
         <v>3</v>
       </c>
-      <c r="E40" s="67" t="n">
+      <c r="E40" s="69" t="n">
         <f aca="false">AVERAGE(G40:P40)</f>
         <v>2</v>
       </c>
-      <c r="F40" s="68" t="n">
+      <c r="F40" s="70" t="n">
         <f aca="false">COUNT(G40:Q40)</f>
         <v>1</v>
       </c>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68" t="n">
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="68"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="70"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="70"/>
+      <c r="R40" s="70"/>
     </row>
     <row r="41" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="64" t="s">
-        <v>236</v>
-      </c>
-      <c r="B41" s="70" t="s">
-        <v>262</v>
-      </c>
-      <c r="C41" s="70" t="s">
-        <v>263</v>
-      </c>
-      <c r="D41" s="66" t="n">
+      <c r="A41" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="C41" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="D41" s="68" t="n">
         <f aca="false">(5*COUNT(G41:Q41))-(SUM(G41:Q41))</f>
         <v>3</v>
       </c>
-      <c r="E41" s="67" t="n">
+      <c r="E41" s="69" t="n">
         <f aca="false">AVERAGE(G41:P41)</f>
         <v>2</v>
       </c>
-      <c r="F41" s="68" t="n">
+      <c r="F41" s="70" t="n">
         <f aca="false">COUNT(G41:Q41)</f>
         <v>1</v>
       </c>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68" t="n">
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="68"/>
-      <c r="Q41" s="68"/>
-      <c r="R41" s="68"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="70"/>
+      <c r="P41" s="70"/>
+      <c r="Q41" s="70"/>
+      <c r="R41" s="70"/>
     </row>
     <row r="42" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="64" t="s">
+      <c r="A42" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="C42" s="70" t="s">
-        <v>265</v>
-      </c>
-      <c r="D42" s="66" t="n">
+      <c r="B42" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="C42" s="72" t="s">
+        <v>269</v>
+      </c>
+      <c r="D42" s="68" t="n">
         <f aca="false">(5*COUNT(G42:Q42))-(SUM(G42:Q42))</f>
         <v>3</v>
       </c>
-      <c r="E42" s="67" t="n">
+      <c r="E42" s="69" t="n">
         <f aca="false">AVERAGE(G42:P42)</f>
         <v>2</v>
       </c>
-      <c r="F42" s="68" t="n">
+      <c r="F42" s="70" t="n">
         <f aca="false">COUNT(G42:Q42)</f>
         <v>1</v>
       </c>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
-      <c r="N42" s="68"/>
-      <c r="O42" s="68" t="n">
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="P42" s="68"/>
-      <c r="Q42" s="68"/>
-      <c r="R42" s="68"/>
+      <c r="P42" s="70"/>
+      <c r="Q42" s="70"/>
+      <c r="R42" s="70"/>
     </row>
     <row r="43" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="B43" s="65" t="s">
-        <v>266</v>
-      </c>
-      <c r="C43" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="D43" s="66" t="n">
+      <c r="A43" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="C43" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="D43" s="68" t="n">
         <f aca="false">(5*COUNT(G43:Q43))-(SUM(G43:Q43))</f>
         <v>2</v>
       </c>
-      <c r="E43" s="67" t="n">
+      <c r="E43" s="69" t="n">
         <f aca="false">AVERAGE(G43:P43)</f>
         <v>3</v>
       </c>
-      <c r="F43" s="68" t="n">
+      <c r="F43" s="70" t="n">
         <f aca="false">COUNT(G43:Q43)</f>
         <v>1</v>
       </c>
-      <c r="G43" s="68" t="n">
+      <c r="G43" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
-      <c r="N43" s="68"/>
-      <c r="O43" s="68"/>
-      <c r="P43" s="68"/>
-      <c r="Q43" s="68"/>
-      <c r="R43" s="68"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="70"/>
+      <c r="Q43" s="70"/>
+      <c r="R43" s="70"/>
     </row>
     <row r="44" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="B44" s="70" t="s">
-        <v>268</v>
-      </c>
-      <c r="C44" s="70" t="s">
-        <v>269</v>
-      </c>
-      <c r="D44" s="66" t="n">
+      <c r="A44" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="C44" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="D44" s="68" t="n">
         <f aca="false">(5*COUNT(G44:Q44))-(SUM(G44:Q44))</f>
         <v>2</v>
       </c>
-      <c r="E44" s="67" t="n">
+      <c r="E44" s="69" t="n">
         <f aca="false">AVERAGE(G44:P44)</f>
         <v>3</v>
       </c>
-      <c r="F44" s="68" t="n">
+      <c r="F44" s="70" t="n">
         <f aca="false">COUNT(G44:Q44)</f>
         <v>1</v>
       </c>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68" t="n">
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="L44" s="68"/>
-      <c r="M44" s="68"/>
-      <c r="N44" s="68"/>
-      <c r="O44" s="68"/>
-      <c r="P44" s="68"/>
-      <c r="Q44" s="68"/>
-      <c r="R44" s="68"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="70"/>
+      <c r="N44" s="70"/>
+      <c r="O44" s="70"/>
+      <c r="P44" s="70"/>
+      <c r="Q44" s="70"/>
+      <c r="R44" s="70"/>
     </row>
     <row r="45" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="64" t="s">
-        <v>270</v>
-      </c>
-      <c r="B45" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="C45" s="70" t="s">
-        <v>272</v>
-      </c>
-      <c r="D45" s="66" t="n">
+      <c r="A45" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="B45" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="C45" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="D45" s="68" t="n">
         <f aca="false">(5*COUNT(G45:Q45))-(SUM(G45:Q45))</f>
         <v>1</v>
       </c>
-      <c r="E45" s="67" t="n">
+      <c r="E45" s="69" t="n">
         <f aca="false">AVERAGE(G45:P45)</f>
         <v>4</v>
       </c>
-      <c r="F45" s="68" t="n">
+      <c r="F45" s="70" t="n">
         <f aca="false">COUNT(G45:Q45)</f>
         <v>1</v>
       </c>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68" t="n">
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="70" t="n">
         <v>4</v>
       </c>
-      <c r="L45" s="68"/>
-      <c r="M45" s="68"/>
-      <c r="N45" s="68"/>
-      <c r="O45" s="68"/>
-      <c r="P45" s="68"/>
-      <c r="Q45" s="68"/>
-      <c r="R45" s="68"/>
+      <c r="L45" s="70"/>
+      <c r="M45" s="70"/>
+      <c r="N45" s="70"/>
+      <c r="O45" s="70"/>
+      <c r="P45" s="70"/>
+      <c r="Q45" s="70"/>
+      <c r="R45" s="70"/>
     </row>
     <row r="46" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="B46" s="70" t="s">
-        <v>273</v>
-      </c>
-      <c r="C46" s="65" t="s">
-        <v>274</v>
-      </c>
-      <c r="D46" s="66" t="n">
+      <c r="A46" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="C46" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="D46" s="68" t="n">
         <f aca="false">(5*COUNT(G46:Q46))-(SUM(G46:Q46))</f>
         <v>1</v>
       </c>
-      <c r="E46" s="67" t="n">
+      <c r="E46" s="69" t="n">
         <f aca="false">AVERAGE(G46:P46)</f>
         <v>4</v>
       </c>
-      <c r="F46" s="68" t="n">
+      <c r="F46" s="70" t="n">
         <f aca="false">COUNT(G46:Q46)</f>
         <v>1</v>
       </c>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="69" t="n">
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="71" t="n">
         <v>4</v>
       </c>
-      <c r="L46" s="68"/>
-      <c r="M46" s="68"/>
-      <c r="N46" s="68"/>
-      <c r="O46" s="68"/>
-      <c r="P46" s="68"/>
-      <c r="Q46" s="68"/>
-      <c r="R46" s="68"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="70"/>
+      <c r="O46" s="70"/>
+      <c r="P46" s="70"/>
+      <c r="Q46" s="70"/>
+      <c r="R46" s="70"/>
     </row>
     <row r="47" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="58"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="75" t="s">
-        <v>275</v>
-      </c>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
-      <c r="N47" s="75"/>
-      <c r="O47" s="75"/>
-      <c r="P47" s="75"/>
-      <c r="Q47" s="75"/>
-      <c r="R47" s="74"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="77"/>
+      <c r="N47" s="77"/>
+      <c r="O47" s="77"/>
+      <c r="P47" s="77"/>
+      <c r="Q47" s="77"/>
+      <c r="R47" s="76"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="66" t="n">
+      <c r="A53" s="68" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="66" t="n">
+      <c r="A54" s="68" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="66" t="n">
+      <c r="A55" s="68" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="66" t="n">
+      <c r="A56" s="68" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="66" t="n">
+      <c r="A57" s="68" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="66" t="n">
+      <c r="A58" s="68" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="66" t="n">
+      <c r="A59" s="68" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="66" t="n">
+      <c r="A60" s="68" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="66" t="n">
+      <c r="A61" s="68" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="66" t="n">
+      <c r="A62" s="68" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="66" t="n">
+      <c r="A63" s="68" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="66" t="n">
+      <c r="A64" s="68" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="66" t="n">
+      <c r="A65" s="68" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="66" t="n">
+      <c r="A66" s="68" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="66" t="n">
+      <c r="A67" s="68" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="66" t="n">
+      <c r="A68" s="68" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="66" t="n">
+      <c r="A69" s="68" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="66" t="n">
+      <c r="A70" s="68" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="66" t="n">
+      <c r="A71" s="68" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="66" t="n">
+      <c r="A72" s="68" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="66" t="n">
+      <c r="A73" s="68" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="66" t="n">
+      <c r="A74" s="68" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="66" t="n">
+      <c r="A75" s="68" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="66" t="n">
+      <c r="A76" s="68" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="66" t="n">
+      <c r="A77" s="68" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="66" t="n">
+      <c r="A78" s="68" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="66" t="n">
+      <c r="A79" s="68" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="66" t="n">
+      <c r="A80" s="68" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="66" t="n">
+      <c r="A81" s="68" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="66" t="n">
+      <c r="A82" s="68" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="66" t="n">
+      <c r="A83" s="68" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="66" t="n">
+      <c r="A84" s="68" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="66" t="n">
+      <c r="A85" s="68" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="66" t="n">
+      <c r="A86" s="68" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="66" t="n">
+      <c r="A87" s="68" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="66" t="n">
+      <c r="A88" s="68" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="66" t="n">
+      <c r="A89" s="68" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="66" t="n">
+      <c r="A90" s="68" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="66" t="n">
+      <c r="A91" s="68" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="66" t="n">
+      <c r="A92" s="68" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="66" t="n">
+      <c r="A93" s="68" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="66" t="n">
+      <c r="A94" s="68" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="66" t="n">
+      <c r="A95" s="68" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="66" t="n">
+      <c r="A96" s="68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8704,17 +8749,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z50"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.14"/>
@@ -8722,830 +8767,830 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="76" t="s">
-        <v>276</v>
+      <c r="A1" s="78" t="s">
+        <v>280</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
+        <v>281</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="79" t="s">
-        <v>278</v>
-      </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="81" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="78" t="s">
-        <v>279</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
+      <c r="A3" s="80" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="76" t="s">
-        <v>280</v>
-      </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
+      <c r="B4" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="76" t="s">
-        <v>281</v>
-      </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
+      <c r="B5" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="79"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="76" t="s">
-        <v>282</v>
-      </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
+      <c r="B6" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="78" t="s">
-        <v>283</v>
-      </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="77"/>
-      <c r="U7" s="77"/>
-      <c r="V7" s="77"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="77"/>
+      <c r="B7" s="80" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="78" t="s">
-        <v>283</v>
-      </c>
-      <c r="B8" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="77"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="77"/>
-      <c r="X8" s="77"/>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="77"/>
+      <c r="A8" s="80" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="79"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="79"/>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="79"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="B9" s="78" t="s">
+      <c r="A9" s="80" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="77"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="77"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="78" t="s">
-        <v>285</v>
-      </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
+      <c r="B10" s="80" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="78" t="s">
-        <v>285</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>286</v>
-      </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="77"/>
+      <c r="A11" s="80" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="78" t="s">
-        <v>286</v>
-      </c>
-      <c r="B12" s="76" t="s">
-        <v>287</v>
-      </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="77"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="77"/>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="77"/>
+      <c r="A12" s="80" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="79"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="78" t="s">
-        <v>288</v>
-      </c>
-      <c r="B13" s="76" t="s">
-        <v>289</v>
-      </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="77"/>
+      <c r="A13" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>293</v>
+      </c>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="79"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="78" t="s">
-        <v>288</v>
-      </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="77"/>
+      <c r="B14" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="79"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="77"/>
-      <c r="W15" s="77"/>
-      <c r="X15" s="77"/>
-      <c r="Y15" s="77"/>
-      <c r="Z15" s="77"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="79"/>
+      <c r="Y15" s="79"/>
+      <c r="Z15" s="79"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="77"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="76" t="s">
-        <v>290</v>
-      </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="77"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="77"/>
+      <c r="B17" s="78" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="76" t="s">
-        <v>291</v>
-      </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="77"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="77"/>
-      <c r="Z18" s="77"/>
+      <c r="B18" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="79"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="77"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="79"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="77"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="79"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="77"/>
-      <c r="W21" s="77"/>
-      <c r="X21" s="77"/>
-      <c r="Y21" s="77"/>
-      <c r="Z21" s="77"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="79"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="76" t="s">
-        <v>292</v>
-      </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
-      <c r="W22" s="77"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="77"/>
-      <c r="Z22" s="77"/>
+      <c r="B22" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="79"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="76"/>
-      <c r="B23" s="78" t="s">
+      <c r="A23" s="78"/>
+      <c r="B23" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="77"/>
-      <c r="U23" s="77"/>
-      <c r="V23" s="77"/>
-      <c r="W23" s="77"/>
-      <c r="X23" s="77"/>
-      <c r="Y23" s="77"/>
-      <c r="Z23" s="77"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="79"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="77"/>
-      <c r="B24" s="76" t="s">
-        <v>293</v>
-      </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="77"/>
-      <c r="T24" s="77"/>
-      <c r="U24" s="77"/>
-      <c r="V24" s="77"/>
-      <c r="W24" s="77"/>
-      <c r="X24" s="77"/>
-      <c r="Y24" s="77"/>
-      <c r="Z24" s="77"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="78" t="s">
+        <v>297</v>
+      </c>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="79"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="77"/>
-      <c r="B25" s="76" t="s">
-        <v>294</v>
-      </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="77"/>
-      <c r="S25" s="77"/>
-      <c r="T25" s="77"/>
-      <c r="U25" s="77"/>
-      <c r="V25" s="77"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="77"/>
-      <c r="Y25" s="77"/>
-      <c r="Z25" s="77"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="79"/>
+      <c r="Y25" s="79"/>
+      <c r="Z25" s="79"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="77"/>
-      <c r="B26" s="76" t="s">
-        <v>295</v>
-      </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="77"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="77"/>
-      <c r="X26" s="77"/>
-      <c r="Y26" s="77"/>
-      <c r="Z26" s="77"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
+      <c r="W26" s="79"/>
+      <c r="X26" s="79"/>
+      <c r="Y26" s="79"/>
+      <c r="Z26" s="79"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9586,7 +9631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -9596,539 +9641,539 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="64.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" s="64" t="s">
+      <c r="D1" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="P1" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q1" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="S1" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="T1" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="U1" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="V1" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="W1" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="X1" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y1" s="66" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z1" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA1" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB1" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC1" s="66" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD1" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE1" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF1" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG1" s="66" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH1" s="66" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI1" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ1" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK1" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL1" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM1" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN1" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO1" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="AP1" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ1" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR1" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="AS1" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="AT1" s="66" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="203.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="K2" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="M2" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="N2" s="72" t="s">
+        <v>209</v>
+      </c>
+      <c r="O2" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="P2" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q2" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="R2" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="S2" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="T2" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="U2" s="72" t="s">
+        <v>224</v>
+      </c>
+      <c r="V2" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="W2" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="X2" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y2" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z2" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA2" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB2" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC2" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD2" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE2" s="72" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF2" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG2" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH2" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="AI2" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ2" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK2" s="72" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL2" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="AM2" s="75" t="s">
+        <v>262</v>
+      </c>
+      <c r="AN2" s="73" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO2" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="AP2" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="AQ2" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="AR2" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="AS2" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT2" s="72" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C3" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="D3" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="H1" s="64" t="s">
-        <v>189</v>
-      </c>
-      <c r="I1" s="64" t="s">
+      <c r="E3" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="G3" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="H3" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="K1" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="L1" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="M1" s="64" t="s">
-        <v>202</v>
-      </c>
-      <c r="N1" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="64" t="s">
-        <v>189</v>
-      </c>
-      <c r="P1" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q1" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="R1" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="S1" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="T1" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="U1" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="V1" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="W1" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="X1" s="64" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y1" s="64" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z1" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA1" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB1" s="64" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC1" s="64" t="s">
-        <v>229</v>
-      </c>
-      <c r="AD1" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE1" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF1" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="AG1" s="64" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH1" s="64" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI1" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ1" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="AK1" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="AL1" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="AM1" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="AN1" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="AO1" s="64" t="s">
-        <v>236</v>
-      </c>
-      <c r="AP1" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ1" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="AR1" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="AS1" s="64" t="s">
-        <v>270</v>
-      </c>
-      <c r="AT1" s="64" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="203.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>185</v>
-      </c>
-      <c r="G2" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" s="71" t="s">
-        <v>190</v>
-      </c>
-      <c r="I2" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="J2" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="K2" s="70" t="s">
+      <c r="I3" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="L2" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="M2" s="65" t="s">
+      <c r="J3" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="K3" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="N2" s="70" t="s">
+      <c r="L3" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="O2" s="71" t="s">
-        <v>207</v>
-      </c>
-      <c r="P2" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q2" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="R2" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="S2" s="65" t="s">
+      <c r="M3" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="N3" s="72" t="s">
+        <v>210</v>
+      </c>
+      <c r="O3" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="P3" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q3" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="T2" s="72" t="s">
+      <c r="R3" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="U2" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="V2" s="73" t="s">
+      <c r="S3" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="T3" s="74" t="s">
         <v>223</v>
       </c>
-      <c r="W2" s="65" t="s">
+      <c r="U3" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="X2" s="65" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y2" s="65" t="s">
+      <c r="V3" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="W3" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="Z2" s="70" t="s">
+      <c r="X3" s="75" t="s">
         <v>232</v>
       </c>
-      <c r="AA2" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB2" s="65" t="s">
+      <c r="Y3" s="72" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z3" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="AC2" s="70" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD2" s="70" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE2" s="70" t="s">
-        <v>242</v>
-      </c>
-      <c r="AF2" s="70" t="s">
-        <v>244</v>
-      </c>
-      <c r="AG2" s="65" t="s">
-        <v>246</v>
-      </c>
-      <c r="AH2" s="70" t="s">
-        <v>248</v>
-      </c>
-      <c r="AI2" s="70" t="s">
-        <v>250</v>
-      </c>
-      <c r="AJ2" s="70" t="s">
-        <v>252</v>
-      </c>
-      <c r="AK2" s="70" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL2" s="70" t="s">
-        <v>256</v>
-      </c>
-      <c r="AM2" s="73" t="s">
-        <v>258</v>
-      </c>
-      <c r="AN2" s="71" t="s">
-        <v>260</v>
-      </c>
-      <c r="AO2" s="70" t="s">
-        <v>262</v>
-      </c>
-      <c r="AP2" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="AQ2" s="65" t="s">
-        <v>266</v>
-      </c>
-      <c r="AR2" s="70" t="s">
-        <v>268</v>
-      </c>
-      <c r="AS2" s="70" t="s">
+      <c r="AA3" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD3" s="72" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE3" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF3" s="72" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG3" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH3" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI3" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ3" s="72" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK3" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL3" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="AM3" s="75" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN3" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="AO3" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="AP3" s="72" t="s">
+        <v>269</v>
+      </c>
+      <c r="AQ3" s="67" t="s">
         <v>271</v>
       </c>
-      <c r="AT2" s="70" t="s">
+      <c r="AR3" s="72" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="28.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C3" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="F3" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="G3" s="70" t="s">
-        <v>188</v>
-      </c>
-      <c r="H3" s="71" t="s">
-        <v>191</v>
-      </c>
-      <c r="I3" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="J3" s="70" t="s">
-        <v>197</v>
-      </c>
-      <c r="K3" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="L3" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="M3" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="N3" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="O3" s="71" t="s">
-        <v>208</v>
-      </c>
-      <c r="P3" s="70" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q3" s="65" t="s">
-        <v>212</v>
-      </c>
-      <c r="R3" s="70" t="s">
-        <v>214</v>
-      </c>
-      <c r="S3" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="T3" s="72" t="s">
-        <v>219</v>
-      </c>
-      <c r="U3" s="70" t="s">
-        <v>221</v>
-      </c>
-      <c r="V3" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="W3" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="X3" s="73" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y3" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z3" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA3" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="AD3" s="70" t="s">
-        <v>241</v>
-      </c>
-      <c r="AE3" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF3" s="70" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG3" s="71" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH3" s="70" t="s">
-        <v>249</v>
-      </c>
-      <c r="AI3" s="70" t="s">
-        <v>251</v>
-      </c>
-      <c r="AJ3" s="70" t="s">
-        <v>253</v>
-      </c>
-      <c r="AK3" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="AL3" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="AM3" s="73" t="s">
-        <v>259</v>
-      </c>
-      <c r="AN3" s="71" t="s">
-        <v>261</v>
-      </c>
-      <c r="AO3" s="70" t="s">
-        <v>263</v>
-      </c>
-      <c r="AP3" s="70" t="s">
-        <v>265</v>
-      </c>
-      <c r="AQ3" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="AR3" s="70" t="s">
-        <v>269</v>
-      </c>
-      <c r="AS3" s="70" t="s">
-        <v>272</v>
-      </c>
-      <c r="AT3" s="65" t="s">
-        <v>274</v>
+      <c r="AS3" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="AT3" s="67" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="66" t="n">
+      <c r="C4" s="68" t="n">
         <v>28</v>
       </c>
-      <c r="D4" s="66" t="n">
+      <c r="D4" s="68" t="n">
         <v>26</v>
       </c>
-      <c r="E4" s="66" t="n">
+      <c r="E4" s="68" t="n">
         <v>16</v>
       </c>
-      <c r="F4" s="66" t="n">
+      <c r="F4" s="68" t="n">
         <v>16</v>
       </c>
-      <c r="G4" s="66" t="n">
+      <c r="G4" s="68" t="n">
         <v>16</v>
       </c>
-      <c r="H4" s="66" t="n">
+      <c r="H4" s="68" t="n">
         <v>15</v>
       </c>
-      <c r="I4" s="66" t="n">
+      <c r="I4" s="68" t="n">
         <v>13</v>
       </c>
-      <c r="J4" s="66" t="n">
+      <c r="J4" s="68" t="n">
         <v>13</v>
       </c>
-      <c r="K4" s="66" t="n">
-        <v>12</v>
-      </c>
-      <c r="L4" s="66" t="n">
-        <v>12</v>
-      </c>
-      <c r="M4" s="66" t="n">
-        <v>12</v>
-      </c>
-      <c r="N4" s="66" t="n">
-        <v>12</v>
-      </c>
-      <c r="O4" s="66" t="n">
-        <v>12</v>
-      </c>
-      <c r="P4" s="66" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="66" t="n">
-        <v>11</v>
-      </c>
-      <c r="R4" s="66" t="n">
-        <v>11</v>
-      </c>
-      <c r="S4" s="66" t="n">
+      <c r="K4" s="68" t="n">
+        <v>12</v>
+      </c>
+      <c r="L4" s="68" t="n">
+        <v>12</v>
+      </c>
+      <c r="M4" s="68" t="n">
+        <v>12</v>
+      </c>
+      <c r="N4" s="68" t="n">
+        <v>12</v>
+      </c>
+      <c r="O4" s="68" t="n">
+        <v>12</v>
+      </c>
+      <c r="P4" s="68" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="68" t="n">
+        <v>11</v>
+      </c>
+      <c r="R4" s="68" t="n">
+        <v>11</v>
+      </c>
+      <c r="S4" s="68" t="n">
         <v>9</v>
       </c>
-      <c r="T4" s="66" t="n">
+      <c r="T4" s="68" t="n">
         <v>8</v>
       </c>
-      <c r="U4" s="66" t="n">
+      <c r="U4" s="68" t="n">
         <v>8</v>
       </c>
-      <c r="V4" s="66" t="n">
+      <c r="V4" s="68" t="n">
         <v>8</v>
       </c>
-      <c r="W4" s="66" t="n">
+      <c r="W4" s="68" t="n">
         <v>8</v>
       </c>
-      <c r="X4" s="66" t="n">
+      <c r="X4" s="68" t="n">
         <v>8</v>
       </c>
-      <c r="Y4" s="66" t="n">
+      <c r="Y4" s="68" t="n">
         <v>8</v>
       </c>
-      <c r="Z4" s="66" t="n">
+      <c r="Z4" s="68" t="n">
         <v>8</v>
       </c>
-      <c r="AA4" s="66" t="n">
+      <c r="AA4" s="68" t="n">
         <v>8</v>
       </c>
-      <c r="AB4" s="66" t="n">
+      <c r="AB4" s="68" t="n">
         <v>8</v>
       </c>
-      <c r="AC4" s="66" t="n">
+      <c r="AC4" s="68" t="n">
         <v>7</v>
       </c>
-      <c r="AD4" s="66" t="n">
+      <c r="AD4" s="68" t="n">
         <v>7</v>
       </c>
-      <c r="AE4" s="66" t="n">
+      <c r="AE4" s="68" t="n">
         <v>7</v>
       </c>
-      <c r="AF4" s="66" t="n">
+      <c r="AF4" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="AG4" s="66" t="n">
+      <c r="AG4" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="AH4" s="66" t="n">
+      <c r="AH4" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="AI4" s="66" t="n">
+      <c r="AI4" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="AJ4" s="66" t="n">
+      <c r="AJ4" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="AK4" s="66" t="n">
+      <c r="AK4" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="AL4" s="66" t="n">
+      <c r="AL4" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="AM4" s="66" t="n">
+      <c r="AM4" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="AN4" s="66" t="n">
+      <c r="AN4" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="AO4" s="66" t="n">
+      <c r="AO4" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="AP4" s="66" t="n">
+      <c r="AP4" s="68" t="n">
         <v>3</v>
       </c>
-      <c r="AQ4" s="66" t="n">
+      <c r="AQ4" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="AR4" s="66" t="n">
+      <c r="AR4" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="AS4" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="66" t="n">
+      <c r="AS4" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10585,37 +10630,37 @@
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="27"/>
       <c r="B64" s="6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="24"/>
       <c r="B65" s="17" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="24"/>
       <c r="B66" s="17" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="24"/>
       <c r="B67" s="17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="24"/>
       <c r="B68" s="17" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="24"/>
       <c r="B69" s="17" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
